--- a/Data Structures/Progress log.xlsx
+++ b/Data Structures/Progress log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tat97\Desktop\Quant Prep\Data Structures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tat97\WC_LC\Data Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F8932C-4C00-401C-84DB-9752DB961526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9543443D-E71C-49B9-86A7-3BCE23554222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15636" yWindow="588" windowWidth="15084" windowHeight="15756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Data Structures (I)</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Stack</t>
   </si>
   <si>
-    <t>Queue</t>
-  </si>
-  <si>
-    <t>Deque</t>
-  </si>
-  <si>
     <t>Data Structures (II)</t>
   </si>
   <si>
@@ -109,15 +103,6 @@
   </si>
   <si>
     <t>Sub</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Qn</t>
-  </si>
-  <si>
-    <t>Diff</t>
   </si>
   <si>
     <t xml:space="preserve">Link </t>
@@ -309,6 +294,21 @@
 stack.qsize() # returns 1
 stack.get() # returns the one that last went in aka 'a'</t>
     </r>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Array and Hashing</t>
+  </si>
+  <si>
+    <t>Two points</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/what-is-array/</t>
   </si>
 </sst>
 </file>
@@ -360,13 +360,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,7 +649,7 @@
   <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,10 +659,10 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -676,96 +675,96 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -776,81 +775,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE993C2-46C2-4A72-8648-81181C2BA87D}">
-  <dimension ref="A2:F7"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="86.109375" customWidth="1"/>
+    <col min="4" max="4" width="86.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Data Structures/Progress log.xlsx
+++ b/Data Structures/Progress log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tat97\WC_LC\Data Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9543443D-E71C-49B9-86A7-3BCE23554222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8251F2-D865-4588-92D9-A955B67F1CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15636" yWindow="588" windowWidth="15084" windowHeight="15756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="600" windowWidth="15084" windowHeight="15756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>Data Structures (I)</t>
   </si>
@@ -236,6 +236,21 @@
   </si>
   <si>
     <t xml:space="preserve">Stack </t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Array and Hashing</t>
+  </si>
+  <si>
+    <t>Two points</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/what-is-array/</t>
   </si>
   <si>
     <r>
@@ -287,28 +302,89 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>from queue import LifoQueue # to get Fifo use from queue import Queue
+      <t xml:space="preserve">from queue import LifoQueue # to get Fifo use from queue import Queue
 stack = LifoQueue(maxsize =3) # set maxsize q of 3
 stack.put('a')
-stack.full() # returns false
-stack.qsize() # returns 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stack.full()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> # returns false
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stack.qsize() # returns 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 stack.get() # returns the one that last went in aka 'a'</t>
     </r>
   </si>
   <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Array and Hashing</t>
-  </si>
-  <si>
-    <t>Two points</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/what-is-array/</t>
+    <t>dictionary sorting</t>
+  </si>
+  <si>
+    <t>https://docs.python.org/3/library/heapq.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k largest values in a dictionary called hashmap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- sorted(hashmap.keys(), key = hashmap.get, reverse = True)[:k] 
+- can be replaced by import heapq heapq.nlargest(k , hashmap.key, key = hashmap.get)</t>
+    </r>
+  </si>
+  <si>
+    <t>misc notes</t>
   </si>
 </sst>
 </file>
@@ -675,12 +751,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -775,10 +851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE993C2-46C2-4A72-8648-81181C2BA87D}">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,7 +871,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
@@ -847,18 +923,33 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Structures/Progress log.xlsx
+++ b/Data Structures/Progress log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tat97\WC_LC\Data Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8251F2-D865-4588-92D9-A955B67F1CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F9E0A2-7B6B-472D-BB30-21A6A24F7EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="600" windowWidth="15084" windowHeight="15756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13836" yWindow="336" windowWidth="15084" windowHeight="15756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Data Structures (I)</t>
   </si>
@@ -359,9 +359,21 @@
     <t>https://docs.python.org/3/library/heapq.html</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
+    <t>misc notes</t>
+  </si>
+  <si>
+    <t>two pointers</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/two-pointers-technique/</t>
+  </si>
+  <si>
+    <t>string techniques</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -384,7 +396,83 @@
     </r>
   </si>
   <si>
-    <t>misc notes</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>naïve approach o(n^2) and o(1) space</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+for I in range(n):
+   for j in range(n):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>optimal approach &lt;- two points converging (o(nlogn) time and o(1) space)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+I = 0 
+j = n - 1  # J will start from the end of the array
+while I &lt; n:
+   if list[i] + list[j] == X: return True
+   elif list[i] + list[j] &lt; X: i+=1
+   else: j -= 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regex and string manipulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+import re
+re.sub(pattern, replacement, your_str)
+pattern tips =&gt; r'' to start pattern, [] for sets of values to be accepted for eg. re.sub(r'[^a-z]', '', input)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -436,10 +524,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -851,15 +942,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE993C2-46C2-4A72-8648-81181C2BA87D}">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="86.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -870,7 +961,7 @@
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -903,7 +994,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -911,7 +1002,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -919,7 +1010,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -931,21 +1022,40 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures/Progress log.xlsx
+++ b/Data Structures/Progress log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tat97\WC_LC\Data Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F9E0A2-7B6B-472D-BB30-21A6A24F7EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000EFAF3-551B-40E0-AB8D-635AA2BD782D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13836" yWindow="336" windowWidth="15084" windowHeight="15756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,12 +241,6 @@
     <t>Array</t>
   </si>
   <si>
-    <t>Array and Hashing</t>
-  </si>
-  <si>
-    <t>Two points</t>
-  </si>
-  <si>
     <t>Package</t>
   </si>
   <si>
@@ -471,8 +465,17 @@
       <t xml:space="preserve">
 import re
 re.sub(pattern, replacement, your_str)
-pattern tips =&gt; r'' to start pattern, [] for sets of values to be accepted for eg. re.sub(r'[^a-z]', '', input)</t>
-    </r>
+pattern tips =&gt; r'' to start pattern, [] for sets of values to be excl or incl
+input = 'aaaaa1'
+excluded: re.sub(r'[a-z]', '', input) =&gt; output = '1'
+included:  re.sub(r'[^a-z]', '', input) =&gt; output = 'aaaa'</t>
+    </r>
+  </si>
+  <si>
+    <t>Array, Hashing, Two-points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level </t>
   </si>
 </sst>
 </file>
@@ -813,124 +816,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B20"/>
+  <dimension ref="A2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
@@ -962,7 +970,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
@@ -1014,7 +1022,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1022,40 +1030,40 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Data Structures/Progress log.xlsx
+++ b/Data Structures/Progress log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tat97\WC_LC\Data Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000EFAF3-551B-40E0-AB8D-635AA2BD782D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCA84E9-01B5-4470-8DA6-B88F80A6751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13836" yWindow="336" windowWidth="15084" windowHeight="15756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,7 +953,7 @@
   <dimension ref="A2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Structures/Progress log.xlsx
+++ b/Data Structures/Progress log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tat97\WC_LC\Data Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCA84E9-01B5-4470-8DA6-B88F80A6751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCFFE5B-D78F-40ED-9D24-C574ABC51C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13836" yWindow="336" windowWidth="15084" windowHeight="15756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Data Structures (I)</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t xml:space="preserve">Level </t>
+  </si>
+  <si>
+    <t>https://docs.python.org/3/library/re.html</t>
   </si>
 </sst>
 </file>
@@ -952,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE993C2-46C2-4A72-8648-81181C2BA87D}">
   <dimension ref="A2:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,6 +1068,9 @@
       <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Structures/Progress log.xlsx
+++ b/Data Structures/Progress log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tat97\WC_LC\Data Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCFFE5B-D78F-40ED-9D24-C574ABC51C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B8BF6-2E64-45DB-98F5-2CE907EDE18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13836" yWindow="336" windowWidth="15084" windowHeight="15756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14712" yWindow="252" windowWidth="15084" windowHeight="15756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Data Structures (I)</t>
   </si>
@@ -479,6 +479,92 @@
   </si>
   <si>
     <t>https://docs.python.org/3/library/re.html</t>
+  </si>
+  <si>
+    <t>sliding window technique</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/window-sliding-technique/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">key notes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- can only be used where size of window is fixed through the nested loop
+- array, string, subarray, substring, largest sum, max sum, min sum
+- time complexity: o(n)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>implementation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+if len(arr) &lt; window_size:
+   return -1 
+window _sum = sum(arr[:window_size]) 
+max_sum = window_sum
+for i in range (len(arr)):
+  window_sum = window_sum - arr[i] + arr[i+window_size]
+  max_sum = max(window_sum, max_sum)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how to implement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- find size of the window
+- compute the result 
+- use loop to slide window by 1 and calculate result window by window</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -953,15 +1039,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE993C2-46C2-4A72-8648-81181C2BA87D}">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="86.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1072,6 +1158,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data Structures/Progress log.xlsx
+++ b/Data Structures/Progress log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tat97\WC_LC\Data Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190B8BF6-2E64-45DB-98F5-2CE907EDE18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2739EE2F-94FC-4627-BE8E-1AE7CEC3178D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14712" yWindow="252" windowWidth="15084" windowHeight="15756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3636" yWindow="288" windowWidth="21000" windowHeight="15756" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -640,6 +640,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>833718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>203427</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2430678</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45BAA1E5-4F87-F58B-B376-504AEA6B3D99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11313459" y="8319247"/>
+          <a:ext cx="8316486" cy="4887007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,7 +1091,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,5 +1221,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>